--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H2">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>840.9935162323034</v>
+        <v>447.9643834470436</v>
       </c>
       <c r="R2">
-        <v>7568.94164609073</v>
+        <v>4031.679451023392</v>
       </c>
       <c r="S2">
-        <v>0.005197232822798193</v>
+        <v>0.002783933527809181</v>
       </c>
       <c r="T2">
-        <v>0.005197232822798192</v>
+        <v>0.002783933527809181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H3">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>25171.82180252528</v>
+        <v>28726.85987919854</v>
       </c>
       <c r="R3">
-        <v>226546.3962227275</v>
+        <v>258541.7389127868</v>
       </c>
       <c r="S3">
-        <v>0.1555586528987874</v>
+        <v>0.1785268457081061</v>
       </c>
       <c r="T3">
-        <v>0.1555586528987874</v>
+        <v>0.1785268457081061</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H4">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>3456.418977725391</v>
+        <v>3517.595845838538</v>
       </c>
       <c r="R4">
-        <v>31107.77079952852</v>
+        <v>31658.36261254684</v>
       </c>
       <c r="S4">
-        <v>0.0213602290786448</v>
+        <v>0.02186056163027492</v>
       </c>
       <c r="T4">
-        <v>0.02136022907864479</v>
+        <v>0.02186056163027492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H5">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I5">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J5">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>10750.53121068864</v>
+        <v>10207.26216406981</v>
       </c>
       <c r="R5">
-        <v>96754.78089619771</v>
+        <v>91865.35947662829</v>
       </c>
       <c r="S5">
-        <v>0.06643691371251173</v>
+        <v>0.06343437205215066</v>
       </c>
       <c r="T5">
-        <v>0.06643691371251173</v>
+        <v>0.06343437205215066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J6">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>1757.407987155126</v>
+        <v>820.2569646120012</v>
       </c>
       <c r="R6">
-        <v>15816.67188439613</v>
+        <v>7382.31268150801</v>
       </c>
       <c r="S6">
-        <v>0.01086055754009806</v>
+        <v>0.005097594696325427</v>
       </c>
       <c r="T6">
-        <v>0.01086055754009806</v>
+        <v>0.005097594696325427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J7">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
         <v>52601.07222370555</v>
       </c>
       <c r="R7">
-        <v>473409.6500133499</v>
+        <v>473409.65001335</v>
       </c>
       <c r="S7">
-        <v>0.3250679271585567</v>
+        <v>0.3268962756267818</v>
       </c>
       <c r="T7">
-        <v>0.3250679271585566</v>
+        <v>0.3268962756267819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>648.391617</v>
       </c>
       <c r="I8">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J8">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>7222.812306119224</v>
+        <v>6440.986377168969</v>
       </c>
       <c r="R8">
-        <v>65005.31075507301</v>
+        <v>57968.87739452071</v>
       </c>
       <c r="S8">
-        <v>0.04463606016660946</v>
+        <v>0.04002835624918079</v>
       </c>
       <c r="T8">
-        <v>0.04463606016660945</v>
+        <v>0.04002835624918079</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>648.391617</v>
       </c>
       <c r="I9">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J9">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>22465.17844806539</v>
+        <v>18690.27581003791</v>
       </c>
       <c r="R9">
-        <v>202186.6060325885</v>
+        <v>168212.4822903412</v>
       </c>
       <c r="S9">
-        <v>0.1388319416817631</v>
+        <v>0.1161531751055305</v>
       </c>
       <c r="T9">
-        <v>0.1388319416817631</v>
+        <v>0.1161531751055305</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H10">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I10">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J10">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>202.900291986332</v>
+        <v>174.1099589109347</v>
       </c>
       <c r="R10">
-        <v>1826.102627876988</v>
+        <v>1566.989630198412</v>
       </c>
       <c r="S10">
-        <v>0.001253897963436161</v>
+        <v>0.001082029219394248</v>
       </c>
       <c r="T10">
-        <v>0.001253897963436161</v>
+        <v>0.001082029219394248</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H11">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I11">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J11">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>6073.019464456268</v>
+        <v>11165.2456713642</v>
       </c>
       <c r="R11">
-        <v>54657.17518010642</v>
+        <v>100487.2110422778</v>
       </c>
       <c r="S11">
-        <v>0.03753048684081171</v>
+        <v>0.06938788644658321</v>
       </c>
       <c r="T11">
-        <v>0.0375304868408117</v>
+        <v>0.06938788644658322</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H12">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I12">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J12">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>833.9046690270345</v>
+        <v>1367.181166215692</v>
       </c>
       <c r="R12">
-        <v>7505.14202124331</v>
+        <v>12304.63049594123</v>
       </c>
       <c r="S12">
-        <v>0.00515342464989327</v>
+        <v>0.008496527018351824</v>
       </c>
       <c r="T12">
-        <v>0.005153424649893269</v>
+        <v>0.008496527018351822</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H13">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I13">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J13">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>2593.701234974056</v>
+        <v>3967.248427886285</v>
       </c>
       <c r="R13">
-        <v>23343.3111147665</v>
+        <v>35705.23585097657</v>
       </c>
       <c r="S13">
-        <v>0.01602874330271988</v>
+        <v>0.02465498669013389</v>
       </c>
       <c r="T13">
-        <v>0.01602874330271988</v>
+        <v>0.02465498669013389</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H14">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I14">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J14">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>582.25591568905</v>
+        <v>237.9191968301828</v>
       </c>
       <c r="R14">
-        <v>5240.30324120145</v>
+        <v>2141.272771471645</v>
       </c>
       <c r="S14">
-        <v>0.003598267403825808</v>
+        <v>0.001478580113597978</v>
       </c>
       <c r="T14">
-        <v>0.003598267403825808</v>
+        <v>0.001478580113597978</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H15">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I15">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J15">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>17427.53287665357</v>
+        <v>15257.1759775185</v>
       </c>
       <c r="R15">
-        <v>156847.7958898821</v>
+        <v>137314.5837976665</v>
       </c>
       <c r="S15">
-        <v>0.1076999336364913</v>
+        <v>0.0948177250536253</v>
       </c>
       <c r="T15">
-        <v>0.1076999336364913</v>
+        <v>0.09481772505362532</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H16">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I16">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J16">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>2393.027244605533</v>
+        <v>1868.236871813778</v>
       </c>
       <c r="R16">
-        <v>21537.2452014498</v>
+        <v>16814.131846324</v>
       </c>
       <c r="S16">
-        <v>0.01478860359974375</v>
+        <v>0.01161040354438483</v>
       </c>
       <c r="T16">
-        <v>0.01478860359974375</v>
+        <v>0.01161040354438483</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H17">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>7443.054284492458</v>
+        <v>5421.197991732059</v>
       </c>
       <c r="R17">
-        <v>66987.48856043212</v>
+        <v>48790.78192558853</v>
       </c>
       <c r="S17">
-        <v>0.04599712754330871</v>
+        <v>0.03369074731776934</v>
       </c>
       <c r="T17">
-        <v>0.04599712754330871</v>
+        <v>0.03369074731776935</v>
       </c>
     </row>
   </sheetData>
